--- a/Data/Excels/Synthetic/Depth without scale/1/ARAP_not_scaled_depth_InRays_1.xlsx
+++ b/Data/Excels/Synthetic/Depth without scale/1/ARAP_not_scaled_depth_InRays_1.xlsx
@@ -751,7 +751,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1,06e-02</t>
+          <t>1,02e-02</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -830,17 +830,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9,68e-04</t>
+          <t>1,49e-03</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -860,28 +860,28 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -915,17 +915,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3,36e-02</t>
+          <t>1,51e-03</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -945,28 +945,28 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1000,17 +1000,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1,52e-03</t>
+          <t>1,50e-03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1030,28 +1030,28 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1085,17 +1085,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3,97e-02</t>
+          <t>1,48e-03</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1131,12 +1131,12 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1,80</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1,95e-03</t>
+          <t>1,57e-03</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1200,28 +1200,28 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
@@ -1255,17 +1255,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3,99e-02</t>
+          <t>1,87e-03</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1285,28 +1285,28 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1340,17 +1340,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1,59e-03</t>
+          <t>1,86e-03</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1370,28 +1370,28 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
@@ -1425,17 +1425,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3,90e-02</t>
+          <t>1,88e-03</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1455,28 +1455,28 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1510,17 +1510,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>1,10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1,82e-03</t>
+          <t>1,81e-03</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1540,28 +1540,28 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
@@ -1595,17 +1595,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3,87e-02</t>
+          <t>2,14e-03</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1625,17 +1625,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1645,22 +1645,22 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-9,84</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>72,54</t>
+          <t>82,01</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1,15e-03</t>
+          <t>6,41e-04</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1742,12 +1742,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="R16" t="inlineStr"/>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1,21e-04</t>
+          <t>9,42e-05</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1811,28 +1811,28 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="R17" t="inlineStr"/>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>6,68e-05</t>
+          <t>2,51e-05</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1896,28 +1896,28 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="R18" t="inlineStr"/>
@@ -1951,17 +1951,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>5,96e-05</t>
+          <t>1,99e-05</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1981,28 +1981,28 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="R19" t="inlineStr"/>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>5,75e-05</t>
+          <t>1,94e-05</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2066,28 +2066,28 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="R20" t="inlineStr"/>
@@ -2121,17 +2121,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>5,69e-05</t>
+          <t>1,92e-05</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2151,28 +2151,28 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="R21" t="inlineStr"/>
@@ -2206,17 +2206,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5,71e-05</t>
+          <t>1,87e-05</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2236,28 +2236,28 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="R22" t="inlineStr"/>
@@ -2291,17 +2291,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>5,75e-05</t>
+          <t>1,89e-05</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2321,28 +2321,28 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="R23" t="inlineStr"/>
@@ -2376,17 +2376,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>5,77e-05</t>
+          <t>1,90e-05</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2406,28 +2406,28 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="R24" t="inlineStr"/>
@@ -2461,17 +2461,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>5,83e-05</t>
+          <t>1,91e-05</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2491,28 +2491,28 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="R25" t="inlineStr"/>
@@ -2546,17 +2546,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>5,85e-05</t>
+          <t>1,91e-05</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2596,22 +2596,22 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>13,07</t>
+          <t>11,78</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>57,28</t>
+          <t>53,45</t>
         </is>
       </c>
     </row>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1,21e-02</t>
+          <t>1,03e-02</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2693,12 +2693,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>3,90</t>
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
@@ -2732,17 +2732,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1,13e-03</t>
+          <t>2,00e-03</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2762,28 +2762,28 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2,90</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="R28" t="inlineStr"/>
@@ -2817,17 +2817,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3,03e-02</t>
+          <t>5,12e-03</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2847,28 +2847,28 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>3,90</t>
         </is>
       </c>
       <c r="R29" t="inlineStr"/>
@@ -2902,17 +2902,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1,85e-03</t>
+          <t>1,26e-03</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2932,28 +2932,28 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="R30" t="inlineStr"/>
@@ -2987,17 +2987,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>5,83e-04</t>
+          <t>3,30e-03</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3017,28 +3017,28 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="R31" t="inlineStr"/>
@@ -3072,17 +3072,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5,03e-04</t>
+          <t>1,23e-03</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3102,28 +3102,28 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -3157,17 +3157,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3,13e-02</t>
+          <t>1,79e-03</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3187,28 +3187,28 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="R33" t="inlineStr"/>
@@ -3242,17 +3242,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2,28e-03</t>
+          <t>5,15e-03</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3272,28 +3272,28 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="R34" t="inlineStr"/>
@@ -3327,17 +3327,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1,12e-03</t>
+          <t>1,21e-03</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3357,28 +3357,28 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="R35" t="inlineStr"/>
@@ -3412,17 +3412,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3,16e-02</t>
+          <t>1,98e-03</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3442,28 +3442,28 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>3,20</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="R36" t="inlineStr"/>
@@ -3497,17 +3497,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1,94e-03</t>
+          <t>2,64e-03</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3527,17 +3527,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3547,22 +3547,22 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>10,70</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>54,19</t>
+          <t>67,26</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1,56e-01</t>
+          <t>1,58e-01</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3644,12 +3644,12 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>9,41</t>
+          <t>12,24</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>11,63</t>
+          <t>15,41</t>
         </is>
       </c>
       <c r="R38" t="inlineStr"/>
@@ -3683,17 +3683,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>5,70</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>8,55</t>
+          <t>11,48</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1,26e-02</t>
+          <t>9,75e-03</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3713,28 +3713,28 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>11,32</t>
+          <t>13,31</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>13,67</t>
+          <t>16,13</t>
         </is>
       </c>
       <c r="R39" t="inlineStr"/>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2,82e-01</t>
+          <t>2,66e-01</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3798,28 +3798,28 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>-5,34</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="R40" t="inlineStr"/>
@@ -3853,17 +3853,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12,48</t>
+          <t>13,41</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1,41e-02</t>
+          <t>1,47e-02</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3883,28 +3883,28 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>9,19</t>
+          <t>9,23</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="R41" t="inlineStr"/>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>3,00e-01</t>
+          <t>2,89e-01</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3968,28 +3968,28 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>3,90</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>6,40</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -4023,17 +4023,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13,85</t>
+          <t>15,45</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1,59e-02</t>
+          <t>1,08e-02</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4053,28 +4053,28 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>9,99</t>
+          <t>9,50</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>11,65</t>
+          <t>10,73</t>
         </is>
       </c>
       <c r="R43" t="inlineStr"/>
@@ -4108,17 +4108,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10,43</t>
+          <t>15,00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>8,24e-03</t>
+          <t>2,21e-03</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4138,28 +4138,28 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="R44" t="inlineStr"/>
@@ -4193,17 +4193,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>14,97</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>8,58e-03</t>
+          <t>9,58e-04</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4223,28 +4223,28 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>9,40</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>11,12</t>
+          <t>10,73</t>
         </is>
       </c>
       <c r="R45" t="inlineStr"/>
@@ -4278,17 +4278,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>7,72</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>14,78</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1,20e-02</t>
+          <t>5,71e-04</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4308,28 +4308,28 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>-4,04</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>9,34</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>11,11</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="R46" t="inlineStr"/>
@@ -4363,17 +4363,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>6,60</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>13,39</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1,54e-02</t>
+          <t>2,41e-03</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4393,28 +4393,28 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>9,38</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>11,20</t>
+          <t>10,37</t>
         </is>
       </c>
       <c r="R47" t="inlineStr"/>
@@ -4448,17 +4448,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>6,30</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>3,84e-02</t>
+          <t>3,42e-03</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4478,17 +4478,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -4498,22 +4498,22 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>9,74</t>
+          <t>8,82</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>11,91</t>
+          <t>10,31</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>27,95</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>60,67</t>
+          <t>54,91</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1,65e-03</t>
+          <t>1,10e-03</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="R49" t="inlineStr"/>
@@ -4634,17 +4634,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0,60</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2,26e-04</t>
+          <t>2,11e-04</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4664,28 +4664,28 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="R50" t="inlineStr"/>
@@ -4719,17 +4719,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1,05e-04</t>
+          <t>8,23e-05</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4749,28 +4749,28 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>5,40</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="R51" t="inlineStr"/>
@@ -4804,17 +4804,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>9,57e-05</t>
+          <t>6,16e-05</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4834,28 +4834,28 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
@@ -4889,17 +4889,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1,00e-04</t>
+          <t>5,53e-05</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4919,28 +4919,28 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="R53" t="inlineStr"/>
@@ -4974,17 +4974,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>9,87e-05</t>
+          <t>5,41e-05</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5004,28 +5004,28 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>4,30</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="R54" t="inlineStr"/>
@@ -5059,17 +5059,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1,01e-04</t>
+          <t>5,37e-05</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5089,28 +5089,28 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="R55" t="inlineStr"/>
@@ -5144,17 +5144,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1,04e-04</t>
+          <t>5,40e-05</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -5174,28 +5174,28 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="R56" t="inlineStr"/>
@@ -5229,17 +5229,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0,80</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1,07e-04</t>
+          <t>5,48e-05</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5259,28 +5259,28 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -5314,17 +5314,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0,80</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0,40</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1,10e-04</t>
+          <t>5,58e-05</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5344,28 +5344,28 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="R58" t="inlineStr"/>
@@ -5399,17 +5399,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0,40</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1,12e-04</t>
+          <t>5,71e-05</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -5429,17 +5429,17 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -5449,22 +5449,22 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>9,65</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>43,94</t>
+          <t>42,38</t>
         </is>
       </c>
     </row>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1,87e-01</t>
+          <t>1,79e-01</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5546,12 +5546,12 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>10,77</t>
+          <t>12,90</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>13,40</t>
+          <t>16,37</t>
         </is>
       </c>
       <c r="R60" t="inlineStr"/>
@@ -5585,17 +5585,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10,10</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1,05e-02</t>
+          <t>4,82e-02</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5615,28 +5615,28 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>11,14</t>
+          <t>13,42</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>12,96</t>
+          <t>16,66</t>
         </is>
       </c>
       <c r="R61" t="inlineStr"/>
@@ -5670,17 +5670,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>8,18</t>
+          <t>4,30</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>6,77e-03</t>
+          <t>5,76e-02</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5700,28 +5700,28 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>10,77</t>
+          <t>13,18</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>12,63</t>
+          <t>16,47</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -5755,17 +5755,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>6,79e-03</t>
+          <t>1,02e-01</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5785,28 +5785,28 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>10,68</t>
+          <t>12,99</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>12,52</t>
+          <t>16,31</t>
         </is>
       </c>
       <c r="R63" t="inlineStr"/>
@@ -5840,17 +5840,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>8,07e-03</t>
+          <t>1,20e-01</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5870,28 +5870,28 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>-4,55</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>10,60</t>
+          <t>12,99</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>12,44</t>
+          <t>16,31</t>
         </is>
       </c>
       <c r="R64" t="inlineStr"/>
@@ -5925,17 +5925,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1,10e-02</t>
+          <t>1,80e-01</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5955,28 +5955,28 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>-4,46</t>
+          <t>-6,86</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>10,49</t>
+          <t>13,03</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>12,35</t>
+          <t>16,37</t>
         </is>
       </c>
       <c r="R65" t="inlineStr"/>
@@ -6010,17 +6010,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2,89e-01</t>
+          <t>1,80e-01</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6040,28 +6040,28 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-8,98</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>13,09</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>16,44</t>
         </is>
       </c>
       <c r="R66" t="inlineStr"/>
@@ -6095,17 +6095,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>15,13</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1,19e-02</t>
+          <t>1,82e-01</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6125,28 +6125,28 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-10,66</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>-7,52</t>
+          <t>-7,71</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>13,25</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>11,08</t>
+          <t>16,71</t>
         </is>
       </c>
       <c r="R67" t="inlineStr"/>
@@ -6180,17 +6180,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>9,85</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1,23e-02</t>
+          <t>7,32e-02</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6210,28 +6210,28 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>-15,34</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>-7,16</t>
+          <t>-10,67</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>13,55</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>10,14</t>
+          <t>16,83</t>
         </is>
       </c>
       <c r="R68" t="inlineStr"/>
@@ -6265,17 +6265,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1,57e-02</t>
+          <t>2,99e-01</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6295,28 +6295,28 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-11,9</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>-8,67</t>
+          <t>-8,71</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>8,32</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>5,30</t>
         </is>
       </c>
       <c r="R69" t="inlineStr"/>
@@ -6350,17 +6350,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>5,40</t>
+          <t>18,38</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1,95e-02</t>
+          <t>9,74e-03</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6380,17 +6380,17 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>-9,91</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>-9,03</t>
+          <t>-9,33</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -6400,22 +6400,22 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>10,19</t>
+          <t>11,83</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>21,50</t>
+          <t>21,59</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>44,18</t>
+          <t>52,85</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1,52e-03</t>
+          <t>1,02e-03</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -6497,12 +6497,12 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="R71" t="inlineStr"/>
@@ -6536,17 +6536,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>5,95e-04</t>
+          <t>2,37e-04</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6566,28 +6566,28 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -6621,17 +6621,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>4,52e-04</t>
+          <t>1,61e-04</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6651,28 +6651,28 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="R73" t="inlineStr"/>
@@ -6706,17 +6706,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,90</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>3,95e-04</t>
+          <t>1,48e-04</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6736,28 +6736,28 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>2,10</t>
         </is>
       </c>
       <c r="R74" t="inlineStr"/>
@@ -6791,17 +6791,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0,30</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>3,93e-04</t>
+          <t>1,22e-04</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6821,28 +6821,28 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="R75" t="inlineStr"/>
@@ -6876,17 +6876,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,90</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>3,88e-04</t>
+          <t>1,12e-04</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6906,28 +6906,28 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="R76" t="inlineStr"/>
@@ -6961,17 +6961,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>3,86e-04</t>
+          <t>1,01e-04</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -6991,28 +6991,28 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="R77" t="inlineStr"/>
@@ -7046,17 +7046,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>3,87e-04</t>
+          <t>9,61e-05</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7076,28 +7076,28 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="R78" t="inlineStr"/>
@@ -7131,17 +7131,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>3,88e-04</t>
+          <t>8,04e-05</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7161,28 +7161,28 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="R79" t="inlineStr"/>
@@ -7216,17 +7216,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>3,87e-04</t>
+          <t>8,04e-05</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -7246,28 +7246,28 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="R80" t="inlineStr"/>
@@ -7301,17 +7301,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>3,88e-04</t>
+          <t>7,99e-05</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7331,17 +7331,17 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -7351,22 +7351,22 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>30,13</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>41,33</t>
+          <t>49,68</t>
         </is>
       </c>
     </row>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>8,99e-03</t>
+          <t>8,94e-03</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -7448,12 +7448,12 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="R82" t="inlineStr"/>
@@ -7487,17 +7487,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>1,18</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1,39e-03</t>
+          <t>1,86e-03</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -7517,28 +7517,28 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="R83" t="inlineStr"/>
@@ -7572,17 +7572,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>5,06e-02</t>
+          <t>2,86e-03</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -7602,28 +7602,28 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2,90</t>
+          <t>4,50</t>
         </is>
       </c>
       <c r="R84" t="inlineStr"/>
@@ -7657,17 +7657,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>3,18e-03</t>
+          <t>1,18e-03</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7687,28 +7687,28 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>3,70</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="R85" t="inlineStr"/>
@@ -7752,7 +7752,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>4,95e-02</t>
+          <t>4,80e-02</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7772,28 +7772,28 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="R86" t="inlineStr"/>
@@ -7827,17 +7827,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2,86e-03</t>
+          <t>2,01e-03</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7857,28 +7857,28 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>-7,8</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>3,20</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="R87" t="inlineStr"/>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>5,00e-02</t>
+          <t>4,64e-02</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -7942,28 +7942,28 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="R88" t="inlineStr"/>
@@ -7997,17 +7997,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>3,40e-03</t>
+          <t>2,31e-03</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8027,28 +8027,28 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>-9,77</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>3,30</t>
         </is>
       </c>
       <c r="R89" t="inlineStr"/>
@@ -8082,17 +8082,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2,14e-03</t>
+          <t>4,63e-02</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8112,28 +8112,28 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>-9,68</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="R90" t="inlineStr"/>
@@ -8167,17 +8167,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>3,50</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>3,00e-03</t>
+          <t>2,45e-03</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -8197,28 +8197,28 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>-9,61</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
+          <t>-1,38</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
           <t>-2,44</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>-2,93</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>3,50</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="R91" t="inlineStr"/>
@@ -8252,17 +8252,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1,92e-03</t>
+          <t>4,66e-02</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -8282,17 +8282,17 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>-9,57</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -8302,22 +8302,22 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>34,98</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>57,01</t>
+          <t>43,63</t>
         </is>
       </c>
     </row>
@@ -8359,7 +8359,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>5,10e-03</t>
+          <t>4,56e-03</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -8399,12 +8399,12 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="R93" t="inlineStr"/>
@@ -8438,17 +8438,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>3,63e-03</t>
+          <t>2,12e-03</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -8468,28 +8468,28 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>-7,16</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="R94" t="inlineStr"/>
@@ -8523,17 +8523,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0,40</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>3,66e-03</t>
+          <t>2,34e-02</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -8553,28 +8553,28 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>-5,35</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>4,40</t>
         </is>
       </c>
       <c r="R95" t="inlineStr"/>
@@ -8608,17 +8608,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>3,76e-03</t>
+          <t>3,55e-03</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -8638,28 +8638,28 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>-9,46</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="R96" t="inlineStr"/>
@@ -8693,17 +8693,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>2,60</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>3,83e-03</t>
+          <t>2,61e-03</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -8723,28 +8723,28 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>-8,12</t>
+          <t>-9,45</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>3,50</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
@@ -8778,17 +8778,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0,30</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>3,90e-03</t>
+          <t>2,44e-02</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -8808,28 +8808,28 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>-8,21</t>
+          <t>-10,73</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>2,80</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="R98" t="inlineStr"/>
@@ -8863,22 +8863,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>4,01e-03</t>
+          <t>4,44e-03</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8893,28 +8893,28 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>-8,46</t>
+          <t>-14,3</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
@@ -8948,22 +8948,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>4,11e-03</t>
+          <t>3,52e-03</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -8978,28 +8978,28 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>-8,78</t>
+          <t>-14,39</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="R100" t="inlineStr"/>
@@ -9033,17 +9033,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>4,23e-03</t>
+          <t>2,44e-02</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -9053,7 +9053,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9063,28 +9063,28 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>-9,06</t>
+          <t>-14,99</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>-6,73</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="R101" t="inlineStr"/>
@@ -9118,17 +9118,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>4,39e-03</t>
+          <t>4,83e-03</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -9148,28 +9148,28 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>-9,37</t>
+          <t>-17,28</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>-7,2</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
@@ -9203,17 +9203,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>4,46e-03</t>
+          <t>4,08e-03</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -9233,17 +9233,17 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>-9,67</t>
+          <t>-17,4</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>-7,39</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -9253,22 +9253,22 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>56,55</t>
+          <t>53,00</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>20,36</t>
+          <t>20,63</t>
         </is>
       </c>
     </row>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1,67e-01</t>
+          <t>1,62e-01</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -9350,12 +9350,12 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>10,34</t>
+          <t>12,55</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>12,97</t>
+          <t>15,79</t>
         </is>
       </c>
       <c r="R104" t="inlineStr"/>
@@ -9389,17 +9389,17 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>11,75</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>1,74e-02</t>
+          <t>1,27e-02</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -9419,28 +9419,28 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>-14,72</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>-13,75</t>
+          <t>-4,41</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>11,79</t>
+          <t>13,63</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>13,98</t>
+          <t>16,24</t>
         </is>
       </c>
       <c r="R105" t="inlineStr"/>
@@ -9474,17 +9474,17 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>3,08e-02</t>
+          <t>2,64e-01</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -9504,28 +9504,28 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>-15,0</t>
+          <t>-7,52</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>-14,19</t>
+          <t>-8,4</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>11,24</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>13,52</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="R106" t="inlineStr"/>
@@ -9559,17 +9559,17 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>21,25</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>4,47e-02</t>
+          <t>9,89e-03</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -9589,28 +9589,28 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>-15,82</t>
+          <t>-8,69</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>-14,54</t>
+          <t>-8,12</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>11,21</t>
+          <t>10,02</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>13,56</t>
+          <t>11,45</t>
         </is>
       </c>
       <c r="R107" t="inlineStr"/>
@@ -9644,17 +9644,17 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>22,03</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2,58e-01</t>
+          <t>2,75e-03</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -9674,28 +9674,28 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>-15,17</t>
+          <t>-8,87</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>-12,06</t>
+          <t>-7,93</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>10,21</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>11,69</t>
         </is>
       </c>
       <c r="R108" t="inlineStr"/>
@@ -9729,17 +9729,17 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>14,57</t>
+          <t>22,06</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>1,17e-02</t>
+          <t>1,40e-03</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -9759,28 +9759,28 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>-14,45</t>
+          <t>-8,89</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>-13,41</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>10,29</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>11,68</t>
+          <t>11,73</t>
         </is>
       </c>
       <c r="R109" t="inlineStr"/>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2,49e-01</t>
+          <t>2,58e-01</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -9844,28 +9844,28 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>-16,43</t>
+          <t>-12,79</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>-13,19</t>
+          <t>-8,58</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>5,70</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="R110" t="inlineStr"/>
@@ -9899,17 +9899,17 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>5,80</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14,83</t>
+          <t>19,12</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>1,23e-02</t>
+          <t>1,12e-02</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -9929,28 +9929,28 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>-16,45</t>
+          <t>-12,31</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>-13,67</t>
+          <t>-9,91</t>
         </is>
       </c>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>10,24</t>
+          <t>10,01</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>11,46</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="R111" t="inlineStr"/>
@@ -9984,17 +9984,17 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>13,64</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>4,42e-03</t>
+          <t>2,61e-01</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -10014,28 +10014,28 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>-16,64</t>
+          <t>-15,45</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>-13,98</t>
+          <t>-9,92</t>
         </is>
       </c>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="R112" t="inlineStr"/>
@@ -10069,17 +10069,17 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>9,88</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>19,54</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2,57e-01</t>
+          <t>1,20e-02</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -10099,28 +10099,28 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>-20,28</t>
+          <t>-14,87</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>-13,71</t>
+          <t>-11,11</t>
         </is>
       </c>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>6,40</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>11,75</t>
         </is>
       </c>
       <c r="R113" t="inlineStr"/>
@@ -10154,17 +10154,17 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>15,44</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>1,22e-02</t>
+          <t>2,52e-01</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -10184,17 +10184,17 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>-20,33</t>
+          <t>-18,59</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>-15,62</t>
+          <t>-11,68</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -10204,22 +10204,22 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>12,07</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>-16,74</t>
+          <t>51,49</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>62,08</t>
+          <t>31,29</t>
         </is>
       </c>
     </row>
